--- a/201-8 (W25)/grades/Bartlett, Lucy.xlsx
+++ b/201-8 (W25)/grades/Bartlett, Lucy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlatza\Documents\winter2025\201-8 (W25)\grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8752CA06-560D-4D06-8D48-1E1F88DCC856}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF963CFB-CE95-485D-BBC8-44AD642097A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{380839EA-A048-45B5-9384-B1EC17772E6F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
   <si>
     <t>PH201-8 quiz 1</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>did not need to take the square root of the y-values. Also, neither of these points are ON the trend line</t>
+  </si>
+  <si>
+    <t>your first attempt at the slope would have been much closer to the correct answer of aproxametly -1200m^2/s.</t>
+  </si>
+  <si>
+    <t>your slope and y-intercepts don't make sense with the graph that you are given in this problem</t>
   </si>
 </sst>
 </file>
@@ -738,9 +744,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -748,7 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -784,9 +788,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -808,12 +809,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -868,54 +920,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -925,32 +938,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1269,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964C4774-8121-4B0E-85A4-DEE73D585D3B}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1534,23 +1532,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1559,14 +1557,14 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="5">
         <v>1</v>
       </c>
@@ -1575,12 +1573,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="47" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
@@ -1589,12 +1587,12 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="49" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="9">
         <v>1</v>
       </c>
@@ -1606,12 +1604,12 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="51" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="7">
         <v>3</v>
       </c>
@@ -1620,8 +1618,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1630,20 +1628,20 @@
         <v>3</v>
       </c>
       <c r="F7" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="42" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="64"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="15">
         <v>1</v>
       </c>
@@ -1658,14 +1656,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="65" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="54"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="17">
         <v>2</v>
       </c>
@@ -1677,12 +1675,12 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="61"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="33" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="19">
         <v>4</v>
       </c>
@@ -1694,166 +1692,183 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="61"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="53" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="54"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="17">
         <v>4</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="61"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="33" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="19">
         <v>1</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="61"/>
-      <c r="B13" s="65" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="54"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="17">
         <v>2</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="61"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="33" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="19">
         <v>2</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="20">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="61"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="53" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="54"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="17">
         <v>4</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="62"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="55" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="21">
         <v>1</v>
       </c>
-      <c r="F16" s="22"/>
+      <c r="F16" s="22">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="23">
         <f>SUM(E3:E16)</f>
         <v>30</v>
       </c>
       <c r="F17" s="24">
         <f>SUM(F3:F16)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="27"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="29"/>
+        <v>46</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="28"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="77"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="23">
+    <mergeCell ref="A19:H20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:B7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B21:H21"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A17:D17"/>
@@ -1866,14 +1881,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:B7"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1895,688 +1902,708 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
     </row>
     <row r="2" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="30" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="32">
+      <c r="B4" s="70"/>
+      <c r="C4" s="31">
         <v>3</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="32">
+      <c r="B5" s="70"/>
+      <c r="C5" s="31">
         <v>6</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="31"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="32">
+      <c r="B6" s="70"/>
+      <c r="C6" s="31">
         <v>4</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="31"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="32">
+      <c r="B7" s="70"/>
+      <c r="C7" s="31">
         <v>1</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="32">
+      <c r="B8" s="70"/>
+      <c r="C8" s="31">
         <v>3</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="31"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="32">
+      <c r="B9" s="70"/>
+      <c r="C9" s="31">
         <v>4</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="31"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="30"/>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="31">
         <v>2</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="31"/>
     </row>
     <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="30"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="31">
         <v>4</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="30"/>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="31">
         <v>4</v>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="31"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="30"/>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="31">
         <v>1</v>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="31"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="30"/>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="31">
         <v>2</v>
       </c>
-      <c r="D16" s="32"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="31">
         <v>4</v>
       </c>
-      <c r="D17" s="32"/>
+      <c r="D17" s="31"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="30"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="31">
         <v>4</v>
       </c>
-      <c r="D18" s="32"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="30"/>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="31">
         <v>1</v>
       </c>
-      <c r="D19" s="32"/>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="32">
+      <c r="B20" s="70"/>
+      <c r="C20" s="31">
         <v>2</v>
       </c>
-      <c r="D20" s="32"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="30"/>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="31">
         <v>45</v>
       </c>
-      <c r="D21" s="32"/>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="69"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
     </row>
     <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="32">
+      <c r="B23" s="70"/>
+      <c r="C23" s="31">
         <v>1</v>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="32">
+      <c r="B24" s="70"/>
+      <c r="C24" s="31">
         <v>3</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="68"/>
-      <c r="C25" s="32">
+      <c r="B25" s="70"/>
+      <c r="C25" s="31">
         <v>6</v>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="32">
+      <c r="B26" s="70"/>
+      <c r="C26" s="31">
         <v>4</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="32">
+      <c r="B27" s="70"/>
+      <c r="C27" s="31">
         <v>1</v>
       </c>
-      <c r="D27" s="32"/>
+      <c r="D27" s="31"/>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="32">
+      <c r="B28" s="70"/>
+      <c r="C28" s="31">
         <v>3</v>
       </c>
-      <c r="D28" s="32"/>
+      <c r="D28" s="31"/>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="32">
+      <c r="B29" s="70"/>
+      <c r="C29" s="31">
         <v>4</v>
       </c>
-      <c r="D29" s="32"/>
+      <c r="D29" s="31"/>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="30"/>
-      <c r="B30" s="32" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="31">
         <v>2</v>
       </c>
-      <c r="D30" s="32"/>
+      <c r="D30" s="31"/>
     </row>
     <row r="31" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="30"/>
-      <c r="B31" s="32" t="s">
+      <c r="A31" s="29"/>
+      <c r="B31" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="31">
         <v>4</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="31"/>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="30"/>
-      <c r="B32" s="32" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="31">
         <v>4</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="30"/>
-      <c r="B33" s="32" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="31">
         <v>1</v>
       </c>
-      <c r="D33" s="32"/>
+      <c r="D33" s="31"/>
     </row>
     <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="68"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="30"/>
-      <c r="B35" s="32" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="31">
         <v>2</v>
       </c>
-      <c r="D35" s="32"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="30"/>
-      <c r="B36" s="32" t="s">
+      <c r="A36" s="29"/>
+      <c r="B36" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="31">
         <v>4</v>
       </c>
-      <c r="D36" s="32"/>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="30"/>
-      <c r="B37" s="32" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="31">
         <v>4</v>
       </c>
-      <c r="D37" s="32"/>
+      <c r="D37" s="31"/>
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="30"/>
-      <c r="B38" s="32" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="31">
         <v>1</v>
       </c>
-      <c r="D38" s="32"/>
+      <c r="D38" s="31"/>
     </row>
     <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="68"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="30"/>
-      <c r="B40" s="32" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="32">
+      <c r="C40" s="31">
         <v>2</v>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="31"/>
     </row>
     <row r="41" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="30"/>
-      <c r="B41" s="32" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="31">
         <v>4</v>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="31"/>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="30"/>
-      <c r="B42" s="32" t="s">
+      <c r="A42" s="29"/>
+      <c r="B42" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="32">
+      <c r="C42" s="31">
         <v>4</v>
       </c>
-      <c r="D42" s="32"/>
+      <c r="D42" s="31"/>
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="30"/>
-      <c r="B43" s="32" t="s">
+      <c r="A43" s="29"/>
+      <c r="B43" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="32">
+      <c r="C43" s="31">
         <v>1</v>
       </c>
-      <c r="D43" s="32"/>
+      <c r="D43" s="31"/>
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="67" t="s">
+      <c r="A44" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="68"/>
-      <c r="C44" s="32">
+      <c r="B44" s="70"/>
+      <c r="C44" s="31">
         <v>5</v>
       </c>
-      <c r="D44" s="32"/>
+      <c r="D44" s="31"/>
     </row>
     <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="30"/>
-      <c r="B45" s="32" t="s">
+      <c r="A45" s="29"/>
+      <c r="B45" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="32">
+      <c r="C45" s="31">
         <v>60</v>
       </c>
-      <c r="D45" s="32"/>
+      <c r="D45" s="31"/>
     </row>
     <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="69"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="71"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="74"/>
     </row>
     <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="67" t="s">
+      <c r="A47" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="32">
+      <c r="B47" s="70"/>
+      <c r="C47" s="31">
         <v>1</v>
       </c>
-      <c r="D47" s="32"/>
+      <c r="D47" s="31"/>
     </row>
     <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="67" t="s">
+      <c r="A48" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="68"/>
-      <c r="C48" s="32">
+      <c r="B48" s="70"/>
+      <c r="C48" s="31">
         <v>3</v>
       </c>
-      <c r="D48" s="32"/>
+      <c r="D48" s="31"/>
     </row>
     <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="67" t="s">
+      <c r="A49" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="32">
+      <c r="B49" s="70"/>
+      <c r="C49" s="31">
         <v>6</v>
       </c>
-      <c r="D49" s="32"/>
+      <c r="D49" s="31"/>
     </row>
     <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="68"/>
-      <c r="C50" s="32">
+      <c r="B50" s="70"/>
+      <c r="C50" s="31">
         <v>4</v>
       </c>
-      <c r="D50" s="32"/>
+      <c r="D50" s="31"/>
     </row>
     <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="67" t="s">
+      <c r="A51" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="32">
+      <c r="B51" s="70"/>
+      <c r="C51" s="31">
         <v>1</v>
       </c>
-      <c r="D51" s="32"/>
+      <c r="D51" s="31"/>
     </row>
     <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="67" t="s">
+      <c r="A52" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="68"/>
-      <c r="C52" s="32">
+      <c r="B52" s="70"/>
+      <c r="C52" s="31">
         <v>3</v>
       </c>
-      <c r="D52" s="32"/>
+      <c r="D52" s="31"/>
     </row>
     <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="67" t="s">
+      <c r="A53" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="68"/>
-      <c r="C53" s="32">
+      <c r="B53" s="70"/>
+      <c r="C53" s="31">
         <v>4</v>
       </c>
-      <c r="D53" s="32"/>
+      <c r="D53" s="31"/>
     </row>
     <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="30"/>
-      <c r="B54" s="32" t="s">
+      <c r="A54" s="29"/>
+      <c r="B54" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="32">
+      <c r="C54" s="31">
         <v>2</v>
       </c>
-      <c r="D54" s="32"/>
+      <c r="D54" s="31"/>
     </row>
     <row r="55" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="30"/>
-      <c r="B55" s="32" t="s">
+      <c r="A55" s="29"/>
+      <c r="B55" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="32">
+      <c r="C55" s="31">
         <v>4</v>
       </c>
-      <c r="D55" s="32"/>
+      <c r="D55" s="31"/>
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="30"/>
-      <c r="B56" s="32" t="s">
+      <c r="A56" s="29"/>
+      <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="32">
+      <c r="C56" s="31">
         <v>4</v>
       </c>
-      <c r="D56" s="32"/>
+      <c r="D56" s="31"/>
     </row>
     <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="30"/>
-      <c r="B57" s="32" t="s">
+      <c r="A57" s="29"/>
+      <c r="B57" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="32">
+      <c r="C57" s="31">
         <v>1</v>
       </c>
-      <c r="D57" s="32"/>
+      <c r="D57" s="31"/>
     </row>
     <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="67" t="s">
+      <c r="A58" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="68"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
     </row>
     <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="30"/>
-      <c r="B59" s="32" t="s">
+      <c r="A59" s="29"/>
+      <c r="B59" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="32">
+      <c r="C59" s="31">
         <v>2</v>
       </c>
-      <c r="D59" s="32"/>
+      <c r="D59" s="31"/>
     </row>
     <row r="60" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="30"/>
-      <c r="B60" s="32" t="s">
+      <c r="A60" s="29"/>
+      <c r="B60" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="32">
+      <c r="C60" s="31">
         <v>4</v>
       </c>
-      <c r="D60" s="32"/>
+      <c r="D60" s="31"/>
     </row>
     <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="30"/>
-      <c r="B61" s="32" t="s">
+      <c r="A61" s="29"/>
+      <c r="B61" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="32">
+      <c r="C61" s="31">
         <v>4</v>
       </c>
-      <c r="D61" s="32"/>
+      <c r="D61" s="31"/>
     </row>
     <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="30"/>
-      <c r="B62" s="32" t="s">
+      <c r="A62" s="29"/>
+      <c r="B62" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="32">
+      <c r="C62" s="31">
         <v>1</v>
       </c>
-      <c r="D62" s="32"/>
+      <c r="D62" s="31"/>
     </row>
     <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B63" s="68"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
     </row>
     <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="30"/>
-      <c r="B64" s="32" t="s">
+      <c r="A64" s="29"/>
+      <c r="B64" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="32">
+      <c r="C64" s="31">
         <v>2</v>
       </c>
-      <c r="D64" s="32"/>
+      <c r="D64" s="31"/>
     </row>
     <row r="65" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="30"/>
-      <c r="B65" s="32" t="s">
+      <c r="A65" s="29"/>
+      <c r="B65" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="32">
+      <c r="C65" s="31">
         <v>4</v>
       </c>
-      <c r="D65" s="32"/>
+      <c r="D65" s="31"/>
     </row>
     <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="30"/>
-      <c r="B66" s="32" t="s">
+      <c r="A66" s="29"/>
+      <c r="B66" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="32">
+      <c r="C66" s="31">
         <v>4</v>
       </c>
-      <c r="D66" s="32"/>
+      <c r="D66" s="31"/>
     </row>
     <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="30"/>
-      <c r="B67" s="32" t="s">
+      <c r="A67" s="29"/>
+      <c r="B67" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="32">
+      <c r="C67" s="31">
         <v>1</v>
       </c>
-      <c r="D67" s="32"/>
+      <c r="D67" s="31"/>
     </row>
     <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="67" t="s">
+      <c r="A68" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="68"/>
-      <c r="C68" s="32">
+      <c r="B68" s="70"/>
+      <c r="C68" s="31">
         <v>5</v>
       </c>
-      <c r="D68" s="32"/>
+      <c r="D68" s="31"/>
     </row>
     <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="30"/>
-      <c r="B69" s="32" t="s">
+      <c r="A69" s="29"/>
+      <c r="B69" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C69" s="32">
+      <c r="C69" s="31">
         <v>60</v>
       </c>
-      <c r="D69" s="32"/>
+      <c r="D69" s="31"/>
     </row>
     <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="68"/>
-      <c r="C70" s="32">
+      <c r="B70" s="70"/>
+      <c r="C70" s="31">
         <v>185</v>
       </c>
-      <c r="D70" s="32"/>
+      <c r="D70" s="31"/>
     </row>
     <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="67"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
+      <c r="A71" s="69"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="C1:D1"/>
@@ -2593,26 +2620,6 @@
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A63:B63"/>
     <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/201-8 (W25)/grades/Bartlett, Lucy.xlsx
+++ b/201-8 (W25)/grades/Bartlett, Lucy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlatza\Documents\winter2025\201-8 (W25)\grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF963CFB-CE95-485D-BBC8-44AD642097A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F01D4A-3B08-457F-9B06-1CB1D5AAD871}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{380839EA-A048-45B5-9384-B1EC17772E6F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
   <si>
     <t>PH201-8 quiz 1</t>
   </si>
@@ -73,22 +73,13 @@
     <t>picking good points on trend line</t>
   </si>
   <si>
-    <t>**</t>
-  </si>
-  <si>
     <t>slope</t>
   </si>
   <si>
     <t>Starting with correct formula</t>
   </si>
   <si>
-    <t>†</t>
-  </si>
-  <si>
     <t>Inputting trendline values appropriately</t>
-  </si>
-  <si>
-    <t>‡</t>
   </si>
   <si>
     <t>Calculating units correctly</t>
@@ -208,9 +199,6 @@
     <t>student Name:</t>
   </si>
   <si>
-    <t>fliped</t>
-  </si>
-  <si>
     <t>did not need to take the square root of the y-values. Also, neither of these points are ON the trend line</t>
   </si>
   <si>
@@ -218,13 +206,16 @@
   </si>
   <si>
     <t>your slope and y-intercepts don't make sense with the graph that you are given in this problem</t>
+  </si>
+  <si>
+    <t>q-value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,11 +230,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -287,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -326,17 +312,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -522,7 +497,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -538,7 +513,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -552,71 +527,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -664,36 +574,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -745,6 +625,113 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -752,203 +739,182 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1265,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964C4774-8121-4B0E-85A4-DEE73D585D3B}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1531,24 +1497,24 @@
     <col min="16132" max="16132" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1556,15 +1522,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="61" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="62"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="5">
         <v>1</v>
       </c>
@@ -1572,13 +1538,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="63" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
@@ -1586,30 +1552,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="65" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="66"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="9">
         <v>1</v>
       </c>
       <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="7">
         <v>3</v>
       </c>
@@ -1617,9 +1580,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
@@ -1628,76 +1591,64 @@
         <v>3</v>
       </c>
       <c r="F7" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="42" t="s">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="15">
         <v>1</v>
       </c>
       <c r="F8" s="16">
         <v>0</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="61"/>
+      <c r="B9" s="34" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="43"/>
-      <c r="B9" s="47" t="s">
+      <c r="C9" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="17">
         <v>2</v>
       </c>
       <c r="F9" s="10">
         <v>2</v>
       </c>
-      <c r="H9" s="18" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="61"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="18">
+        <v>4</v>
+      </c>
+      <c r="F10" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="61"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="39" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="43"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="19">
-        <v>4</v>
-      </c>
-      <c r="F10" s="20">
-        <v>4</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="17">
         <v>4</v>
       </c>
@@ -1705,29 +1656,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="19">
+    <row r="12" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="61"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="18">
         <v>1</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="43"/>
-      <c r="B13" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="36"/>
+    <row r="13" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="61"/>
+      <c r="B13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="40"/>
       <c r="E13" s="17">
         <v>2</v>
       </c>
@@ -1735,27 +1686,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="43"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="19">
+    <row r="14" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="61"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="18">
         <v>2</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="43"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="36"/>
+    <row r="15" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="61"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="40"/>
       <c r="E15" s="17">
         <v>4</v>
       </c>
@@ -1763,104 +1714,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="44"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="21">
+    <row r="16" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="61"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="20">
         <v>1</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="23">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="61"/>
+      <c r="B17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="28">
         <f>SUM(E3:E16)</f>
         <v>30</v>
       </c>
-      <c r="F17" s="24">
-        <f>SUM(F3:F16)</f>
-        <v>21</v>
+      <c r="F17" s="29">
+        <f>SUM(F3:F16,F18:F21)</f>
+        <v>22.5</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="61"/>
+      <c r="B18" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="30">
+        <v>2</v>
+      </c>
+      <c r="F18" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="61"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="9">
+        <v>4</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="61"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="30">
+        <v>4</v>
+      </c>
+      <c r="F20" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="27" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="61"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B22" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="26"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="27"/>
-    </row>
-    <row r="21" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="77"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="76"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="25"/>
+      <c r="C22" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B23" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B25" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A19:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="C14:D14"/>
+  <mergeCells count="28">
+    <mergeCell ref="B23:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="A8:A21"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:B7"/>
@@ -1868,19 +1869,17 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1902,685 +1901,685 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="B1" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
     </row>
     <row r="2" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="30" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="24">
+        <v>3</v>
+      </c>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="24">
+        <v>6</v>
+      </c>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="66" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="69" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="24">
+        <v>4</v>
+      </c>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="31">
+      <c r="B7" s="67"/>
+      <c r="C7" s="24">
+        <v>1</v>
+      </c>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="67"/>
+      <c r="C8" s="24">
         <v>3</v>
       </c>
-      <c r="D4" s="31"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="69" t="s">
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="67"/>
+      <c r="C9" s="24">
+        <v>4</v>
+      </c>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="67"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="22"/>
+      <c r="B11" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="24">
+        <v>2</v>
+      </c>
+      <c r="D11" s="24"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="22"/>
+      <c r="B12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="24">
+        <v>4</v>
+      </c>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="22"/>
+      <c r="B13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="24">
+        <v>4</v>
+      </c>
+      <c r="D13" s="24"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="22"/>
+      <c r="B14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="24">
+        <v>1</v>
+      </c>
+      <c r="D14" s="24"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="67"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="22"/>
+      <c r="B16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="24">
+        <v>2</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="22"/>
+      <c r="B17" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="24">
+        <v>4</v>
+      </c>
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="22"/>
+      <c r="B18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="24">
+        <v>4</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="22"/>
+      <c r="B19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="24">
+        <v>1</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="67"/>
+      <c r="C20" s="24">
+        <v>2</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="22"/>
+      <c r="B21" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="24">
+        <v>45</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="67"/>
+      <c r="C23" s="24">
+        <v>1</v>
+      </c>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="67"/>
+      <c r="C24" s="24">
+        <v>3</v>
+      </c>
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="67"/>
+      <c r="C25" s="24">
+        <v>6</v>
+      </c>
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="67"/>
+      <c r="C26" s="24">
+        <v>4</v>
+      </c>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="67"/>
+      <c r="C27" s="24">
+        <v>1</v>
+      </c>
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="31">
+      <c r="B28" s="67"/>
+      <c r="C28" s="24">
+        <v>3</v>
+      </c>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="67"/>
+      <c r="C29" s="24">
+        <v>4</v>
+      </c>
+      <c r="D29" s="24"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="22"/>
+      <c r="B30" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="24">
+        <v>2</v>
+      </c>
+      <c r="D30" s="24"/>
+    </row>
+    <row r="31" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="22"/>
+      <c r="B31" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="24">
+        <v>4</v>
+      </c>
+      <c r="D31" s="24"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="22"/>
+      <c r="B32" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="24">
+        <v>4</v>
+      </c>
+      <c r="D32" s="24"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="22"/>
+      <c r="B33" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="24">
+        <v>1</v>
+      </c>
+      <c r="D33" s="24"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="67"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="22"/>
+      <c r="B35" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="24">
+        <v>2</v>
+      </c>
+      <c r="D35" s="24"/>
+    </row>
+    <row r="36" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="22"/>
+      <c r="B36" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="24">
+        <v>4</v>
+      </c>
+      <c r="D36" s="24"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="22"/>
+      <c r="B37" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="24">
+        <v>4</v>
+      </c>
+      <c r="D37" s="24"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="22"/>
+      <c r="B38" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="24">
+        <v>1</v>
+      </c>
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="67"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="22"/>
+      <c r="B40" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="24">
+        <v>2</v>
+      </c>
+      <c r="D40" s="24"/>
+    </row>
+    <row r="41" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="22"/>
+      <c r="B41" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="24">
+        <v>4</v>
+      </c>
+      <c r="D41" s="24"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="22"/>
+      <c r="B42" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="24">
+        <v>4</v>
+      </c>
+      <c r="D42" s="24"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="22"/>
+      <c r="B43" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="24">
+        <v>1</v>
+      </c>
+      <c r="D43" s="24"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="67"/>
+      <c r="C44" s="24">
+        <v>5</v>
+      </c>
+      <c r="D44" s="24"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="22"/>
+      <c r="B45" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="24">
+        <v>60</v>
+      </c>
+      <c r="D45" s="24"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="69"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="71"/>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="67"/>
+      <c r="C47" s="24">
+        <v>1</v>
+      </c>
+      <c r="D47" s="24"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="67"/>
+      <c r="C48" s="24">
+        <v>3</v>
+      </c>
+      <c r="D48" s="24"/>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="67"/>
+      <c r="C49" s="24">
         <v>6</v>
       </c>
-      <c r="D5" s="31"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="69" t="s">
+      <c r="D49" s="24"/>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="67"/>
+      <c r="C50" s="24">
+        <v>4</v>
+      </c>
+      <c r="D50" s="24"/>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="67"/>
+      <c r="C51" s="24">
+        <v>1</v>
+      </c>
+      <c r="D51" s="24"/>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="67"/>
+      <c r="C52" s="24">
+        <v>3</v>
+      </c>
+      <c r="D52" s="24"/>
+    </row>
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="31">
-        <v>4</v>
-      </c>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="31">
+      <c r="B53" s="67"/>
+      <c r="C53" s="24">
+        <v>4</v>
+      </c>
+      <c r="D53" s="24"/>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="22"/>
+      <c r="B54" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="24">
+        <v>2</v>
+      </c>
+      <c r="D54" s="24"/>
+    </row>
+    <row r="55" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="22"/>
+      <c r="B55" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="24">
+        <v>4</v>
+      </c>
+      <c r="D55" s="24"/>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="22"/>
+      <c r="B56" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="24">
+        <v>4</v>
+      </c>
+      <c r="D56" s="24"/>
+    </row>
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="22"/>
+      <c r="B57" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="24">
         <v>1</v>
       </c>
-      <c r="D7" s="31"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="69" t="s">
+      <c r="D57" s="24"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="67"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="22"/>
+      <c r="B59" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="24">
+        <v>2</v>
+      </c>
+      <c r="D59" s="24"/>
+    </row>
+    <row r="60" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="22"/>
+      <c r="B60" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="31">
-        <v>3</v>
-      </c>
-      <c r="D8" s="31"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="31">
-        <v>4</v>
-      </c>
-      <c r="D9" s="31"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="69" t="s">
+      <c r="C60" s="24">
+        <v>4</v>
+      </c>
+      <c r="D60" s="24"/>
+    </row>
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="22"/>
+      <c r="B61" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="24">
+        <v>4</v>
+      </c>
+      <c r="D61" s="24"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="22"/>
+      <c r="B62" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="24">
+        <v>1</v>
+      </c>
+      <c r="D62" s="24"/>
+    </row>
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="67"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+    </row>
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="22"/>
+      <c r="B64" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="24">
+        <v>2</v>
+      </c>
+      <c r="D64" s="24"/>
+    </row>
+    <row r="65" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="22"/>
+      <c r="B65" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="24">
+        <v>4</v>
+      </c>
+      <c r="D65" s="24"/>
+    </row>
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="22"/>
+      <c r="B66" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="24">
+        <v>4</v>
+      </c>
+      <c r="D66" s="24"/>
+    </row>
+    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="22"/>
+      <c r="B67" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="24">
+        <v>1</v>
+      </c>
+      <c r="D67" s="24"/>
+    </row>
+    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="29"/>
-      <c r="B11" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="31">
-        <v>2</v>
-      </c>
-      <c r="D11" s="31"/>
-    </row>
-    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="29"/>
-      <c r="B12" s="31" t="s">
+      <c r="B68" s="67"/>
+      <c r="C68" s="24">
+        <v>5</v>
+      </c>
+      <c r="D68" s="24"/>
+    </row>
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="22"/>
+      <c r="B69" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="31">
-        <v>4</v>
-      </c>
-      <c r="D12" s="31"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="29"/>
-      <c r="B13" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="31">
-        <v>4</v>
-      </c>
-      <c r="D13" s="31"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="29"/>
-      <c r="B14" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="31">
-        <v>1</v>
-      </c>
-      <c r="D14" s="31"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="29"/>
-      <c r="B16" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="31">
-        <v>2</v>
-      </c>
-      <c r="D16" s="31"/>
-    </row>
-    <row r="17" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="29"/>
-      <c r="B17" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="31">
-        <v>4</v>
-      </c>
-      <c r="D17" s="31"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="29"/>
-      <c r="B18" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="31">
-        <v>4</v>
-      </c>
-      <c r="D18" s="31"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="29"/>
-      <c r="B19" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="31">
-        <v>1</v>
-      </c>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="31">
-        <v>2</v>
-      </c>
-      <c r="D20" s="31"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="29"/>
-      <c r="B21" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="31">
-        <v>45</v>
-      </c>
-      <c r="D21" s="31"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="72"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="69" t="s">
+      <c r="C69" s="24">
+        <v>60</v>
+      </c>
+      <c r="D69" s="24"/>
+    </row>
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="31">
-        <v>1</v>
-      </c>
-      <c r="D23" s="31"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="31">
-        <v>3</v>
-      </c>
-      <c r="D24" s="31"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="31">
-        <v>6</v>
-      </c>
-      <c r="D25" s="31"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="31">
-        <v>4</v>
-      </c>
-      <c r="D26" s="31"/>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="31">
-        <v>1</v>
-      </c>
-      <c r="D27" s="31"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="31">
-        <v>3</v>
-      </c>
-      <c r="D28" s="31"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="31">
-        <v>4</v>
-      </c>
-      <c r="D29" s="31"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="29"/>
-      <c r="B30" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="31">
-        <v>2</v>
-      </c>
-      <c r="D30" s="31"/>
-    </row>
-    <row r="31" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="29"/>
-      <c r="B31" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="31">
-        <v>4</v>
-      </c>
-      <c r="D31" s="31"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="29"/>
-      <c r="B32" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="31">
-        <v>4</v>
-      </c>
-      <c r="D32" s="31"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="29"/>
-      <c r="B33" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="31">
-        <v>1</v>
-      </c>
-      <c r="D33" s="31"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-    </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="29"/>
-      <c r="B35" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="31">
-        <v>2</v>
-      </c>
-      <c r="D35" s="31"/>
-    </row>
-    <row r="36" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="29"/>
-      <c r="B36" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="31">
-        <v>4</v>
-      </c>
-      <c r="D36" s="31"/>
-    </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="29"/>
-      <c r="B37" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="31">
-        <v>4</v>
-      </c>
-      <c r="D37" s="31"/>
-    </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="29"/>
-      <c r="B38" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="31">
-        <v>1</v>
-      </c>
-      <c r="D38" s="31"/>
-    </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-    </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="29"/>
-      <c r="B40" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="31">
-        <v>2</v>
-      </c>
-      <c r="D40" s="31"/>
-    </row>
-    <row r="41" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="29"/>
-      <c r="B41" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="31">
-        <v>4</v>
-      </c>
-      <c r="D41" s="31"/>
-    </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="29"/>
-      <c r="B42" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="31">
-        <v>4</v>
-      </c>
-      <c r="D42" s="31"/>
-    </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="29"/>
-      <c r="B43" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="31">
-        <v>1</v>
-      </c>
-      <c r="D43" s="31"/>
-    </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="70"/>
-      <c r="C44" s="31">
-        <v>5</v>
-      </c>
-      <c r="D44" s="31"/>
-    </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="29"/>
-      <c r="B45" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="31">
-        <v>60</v>
-      </c>
-      <c r="D45" s="31"/>
-    </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="72"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="74"/>
-    </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="31">
-        <v>1</v>
-      </c>
-      <c r="D47" s="31"/>
-    </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="70"/>
-      <c r="C48" s="31">
-        <v>3</v>
-      </c>
-      <c r="D48" s="31"/>
-    </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="31">
-        <v>6</v>
-      </c>
-      <c r="D49" s="31"/>
-    </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="31">
-        <v>4</v>
-      </c>
-      <c r="D50" s="31"/>
-    </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="70"/>
-      <c r="C51" s="31">
-        <v>1</v>
-      </c>
-      <c r="D51" s="31"/>
-    </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" s="70"/>
-      <c r="C52" s="31">
-        <v>3</v>
-      </c>
-      <c r="D52" s="31"/>
-    </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="70"/>
-      <c r="C53" s="31">
-        <v>4</v>
-      </c>
-      <c r="D53" s="31"/>
-    </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="29"/>
-      <c r="B54" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="31">
-        <v>2</v>
-      </c>
-      <c r="D54" s="31"/>
-    </row>
-    <row r="55" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="29"/>
-      <c r="B55" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="31">
-        <v>4</v>
-      </c>
-      <c r="D55" s="31"/>
-    </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="29"/>
-      <c r="B56" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="31">
-        <v>4</v>
-      </c>
-      <c r="D56" s="31"/>
-    </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="29"/>
-      <c r="B57" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="31">
-        <v>1</v>
-      </c>
-      <c r="D57" s="31"/>
-    </row>
-    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="B58" s="70"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-    </row>
-    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="29"/>
-      <c r="B59" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="31">
-        <v>2</v>
-      </c>
-      <c r="D59" s="31"/>
-    </row>
-    <row r="60" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="29"/>
-      <c r="B60" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="31">
-        <v>4</v>
-      </c>
-      <c r="D60" s="31"/>
-    </row>
-    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="29"/>
-      <c r="B61" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="31">
-        <v>4</v>
-      </c>
-      <c r="D61" s="31"/>
-    </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="29"/>
-      <c r="B62" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="31">
-        <v>1</v>
-      </c>
-      <c r="D62" s="31"/>
-    </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="B63" s="70"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-    </row>
-    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="29"/>
-      <c r="B64" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="31">
-        <v>2</v>
-      </c>
-      <c r="D64" s="31"/>
-    </row>
-    <row r="65" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="29"/>
-      <c r="B65" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="31">
-        <v>4</v>
-      </c>
-      <c r="D65" s="31"/>
-    </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="29"/>
-      <c r="B66" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66" s="31">
-        <v>4</v>
-      </c>
-      <c r="D66" s="31"/>
-    </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="29"/>
-      <c r="B67" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="31">
-        <v>1</v>
-      </c>
-      <c r="D67" s="31"/>
-    </row>
-    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="B68" s="70"/>
-      <c r="C68" s="31">
-        <v>5</v>
-      </c>
-      <c r="D68" s="31"/>
-    </row>
-    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="29"/>
-      <c r="B69" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" s="31">
-        <v>60</v>
-      </c>
-      <c r="D69" s="31"/>
-    </row>
-    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" s="70"/>
-      <c r="C70" s="31">
+      <c r="B70" s="67"/>
+      <c r="C70" s="24">
         <v>185</v>
       </c>
-      <c r="D70" s="31"/>
+      <c r="D70" s="24"/>
     </row>
     <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="69"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
+      <c r="A71" s="66"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="36">
